--- a/沥青/data_input/沥青市场价华东地区.xlsx
+++ b/沥青/data_input/沥青市场价华东地区.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4419"/>
+  <dimension ref="A1:D4421"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56029,6 +56029,30 @@
         <v>164.6994</v>
       </c>
     </row>
+    <row r="4420">
+      <c r="A4420" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B4420" t="n">
+        <v>3470</v>
+      </c>
+      <c r="C4420" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="D4420" t="n">
+        <v>179.0213</v>
+      </c>
+    </row>
+    <row r="4421">
+      <c r="A4421" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B4421" t="n">
+        <v>3470</v>
+      </c>
+      <c r="C4421" t="inlineStr"/>
+      <c r="D4421" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
